--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2716109.246208837</v>
+        <v>2878268.504316718</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4494937.161325583</v>
+        <v>4727843.533770218</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>332.4291174559667</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.4567449591752</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>139.6437502184299</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>266.3131982226353</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>213.1724672599513</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>360.3284296816447</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>69.98849254743202</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>156.9937617317264</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>66.01921540646552</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>32.36127543482664</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>134.9871002855664</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>75.57849577002376</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>6.133574646794328</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>111.5309907175804</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>271.93702518571</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>6.133574646794328</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>60.78001549303714</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.436997393288</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244257</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735226207</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>29.18607610565481</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2239,19 +2241,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>116.0434079398613</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>82.15263531037753</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2482,13 +2484,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2527,7 +2529,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>188.3441148495214</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2536,13 +2538,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>107.3792913045956</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>8.909245336631582</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2773,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>46.16917954999316</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>46.22530271040065</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3187,16 +3189,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>20.08472694640704</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>116.3527098704435</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3235,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>205.4727422559214</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3503,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314726</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3560,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>94.21878984361651</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629693</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>253.4053665868051</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3898,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>166.5582003516155</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>126.8355823247567</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>35.47103781229418</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4141,16 +4143,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>7.26460296736268</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>14.14416275345018</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4328,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1408.019692669128</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1408.019692669128</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.019692669128</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.164238080161</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>988.0621786998757</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.9021756729128</v>
+        <v>513.4376660667899</v>
       </c>
       <c r="C4" t="n">
-        <v>685.9021756729128</v>
+        <v>340.8759545500149</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>174.9979617515375</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>174.9979617515375</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>271.0586252774393</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>689.2685070454004</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1378.455383704944</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1149.747198805608</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>877.7207943919</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>877.7207943919</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y4" t="n">
-        <v>877.7207943919</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.14448398095</v>
+        <v>1047.008894192388</v>
       </c>
       <c r="C5" t="n">
-        <v>1258.042415204777</v>
+        <v>608.8664213758111</v>
       </c>
       <c r="D5" t="n">
-        <v>829.4607409420453</v>
+        <v>393.5406968708098</v>
       </c>
       <c r="E5" t="n">
-        <v>799.7264001407445</v>
+        <v>363.806356069509</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762204</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346894</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346894</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2301.552102346894</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.751429465681</v>
+        <v>2300.737051798331</v>
       </c>
       <c r="X5" t="n">
-        <v>1318.649370085396</v>
+        <v>1881.594588377642</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.403650425453</v>
+        <v>1473.308464677295</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>548.8324253914315</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>548.8324253914315</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>548.8324253914315</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>548.8324253914315</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>548.8324253914315</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940.4401176967148</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S7" t="n">
-        <v>1605.070161768181</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T7" t="n">
-        <v>1605.070161768181</v>
+        <v>2275.739883052311</v>
       </c>
       <c r="U7" t="n">
-        <v>1605.070161768181</v>
+        <v>1997.306882305416</v>
       </c>
       <c r="V7" t="n">
-        <v>1605.070161768181</v>
+        <v>1838.727325000642</v>
       </c>
       <c r="W7" t="n">
-        <v>1605.070161768181</v>
+        <v>1566.700920586933</v>
       </c>
       <c r="X7" t="n">
-        <v>1359.678407101594</v>
+        <v>1321.309165920346</v>
       </c>
       <c r="Y7" t="n">
-        <v>1132.258736415702</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>587.4583232833319</v>
+        <v>978.7890572316419</v>
       </c>
       <c r="C8" t="n">
-        <v>520.7722471151849</v>
+        <v>540.6465844150651</v>
       </c>
       <c r="D8" t="n">
-        <v>488.9028663300335</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1685255287327</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>1033.105672808467</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>1018.003613428182</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1013.75789376824</v>
+        <v>1405.08862771655</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>453.9965675465116</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>874.0494664914149</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1294.102365436318</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1294.102365436318</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1605.602207829152</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.14417192365</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>516.14417192365</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>516.14417192365</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>308.7021231727439</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>728.7550221176472</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1539.415002436732</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1539.415002436732</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1260.982001689838</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1260.982001689838</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>988.9555972761293</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>743.5638426095418</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>516.14417192365</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2140.976262695269</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2964.974180704925</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.118726115958</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2140.976262695269</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2140.976262695269</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>76.13761321162086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>756.8711332819981</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1622.20459659609</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1622.20459659609</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N12" t="n">
-        <v>1622.20459659609</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C13" t="n">
-        <v>785.6314506292333</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D13" t="n">
-        <v>619.753457830756</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E13" t="n">
-        <v>619.753457830756</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>443.0464037925123</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>277.4551288183399</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1222.738694693852</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>784.5962218772752</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>509.9123580533257</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>76.13761321162086</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>76.13761321162086</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>1320.714971542188</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>1320.714971542188</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.714971542188</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>756.8711332819981</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L15" t="n">
-        <v>1622.20459659609</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M15" t="n">
-        <v>1622.20459659609</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N15" t="n">
-        <v>1622.20459659609</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.20459659609</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.20459659609</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.6314506292333</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C16" t="n">
-        <v>613.0697391124583</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D16" t="n">
-        <v>447.191746313981</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E16" t="n">
-        <v>277.4337425647182</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>277.4337425647182</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.869740034112</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.4500693482205</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5516,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.913654892426</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>3343.69978846117</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>3343.69978846117</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>3177.821795662692</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258798</v>
+        <v>3008.06379191343</v>
       </c>
       <c r="F19" t="n">
-        <v>286.091284287636</v>
+        <v>2831.356737875186</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134686</v>
+        <v>2665.765462901014</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>2525.863288591388</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244352</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244352</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>4845.744745822808</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>4567.311745075914</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>4280.356236946344</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>4008.329832532636</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>3762.938077866048</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>3535.518407180157</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>269.4112304877946</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1103.761522445973</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C22" t="n">
-        <v>673.1212928181459</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D22" t="n">
-        <v>673.1212928181459</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2412.031452783383</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>3569.079287993933</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>3569.079287993933</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>845.969722159226</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>673.4080106424509</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>507.5300178439736</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>507.5300178439736</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
         <v>330.8229638057298</v>
@@ -6175,22 +6177,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2348.014679520865</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2069.58167877397</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1782.626170644401</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1510.599766230692</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X25" t="n">
-        <v>1265.208011564105</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y25" t="n">
-        <v>1037.788340878213</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6233,19 +6235,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176684</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1017.756527079655</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G28" t="n">
         <v>330.8229638057298</v>
@@ -6421,13 +6423,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.575145798642</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3417.209496257023</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>270.2186143064091</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2650.81040391895</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2404.930957497405</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6700,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1612.575493976557</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>2769.623329187108</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>3895.354312623555</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6777,28 +6779,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>153.0458362120693</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>153.0458362120693</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>949.5782250957668</v>
+        <v>3429.850174425755</v>
       </c>
       <c r="C34" t="n">
-        <v>949.5782250957668</v>
+        <v>3257.288462908979</v>
       </c>
       <c r="D34" t="n">
-        <v>783.7002322972895</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E34" t="n">
-        <v>613.9422285480268</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>3621.668793144742</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6947,10 +6949,10 @@
         <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
@@ -6962,7 +6964,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.416826573035</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>868.8551150562604</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.836497258927</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1041.416826573035</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,28 +7162,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>936.6111322289576</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7208,16 +7210,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>767.0823885180007</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G41" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>76.13761321162086</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>1018.340576705429</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>1018.340576705429</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>1960.543540199237</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2902.746503693045</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3731.056378526441</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3731.056378526441</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3547.65835789806</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3185.041407831886</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2929.076391077538</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2929.076391077538</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2929.076391077538</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2012863720785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2012863720785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>680.001633102282</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>680.001633102282</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N42" t="n">
-        <v>680.001633102282</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1150.8746687225</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C43" t="n">
-        <v>982.6340623067273</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D43" t="n">
-        <v>816.75606950825</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>646.9980657589872</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>470.2910117207434</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.379401819793</v>
+        <v>2590.803700350592</v>
       </c>
       <c r="T43" t="n">
-        <v>2425.499955398248</v>
+        <v>2344.924253929048</v>
       </c>
       <c r="U43" t="n">
-        <v>2147.066954651353</v>
+        <v>2066.491253182153</v>
       </c>
       <c r="V43" t="n">
-        <v>1860.111446521784</v>
+        <v>1779.535745052583</v>
       </c>
       <c r="W43" t="n">
-        <v>1588.085042108075</v>
+        <v>1507.509340638875</v>
       </c>
       <c r="X43" t="n">
-        <v>1342.693287441488</v>
+        <v>1262.117585972288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1342.693287441488</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1847.66137640978</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1409.518903593203</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>973.6091187676475</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>539.8343739259426</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>111.9669443351503</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>111.9669443351503</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L44" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M44" t="n">
-        <v>2287.945556116525</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N44" t="n">
-        <v>3230.148519610333</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O44" t="n">
-        <v>3260.381874622449</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3260.381874622449</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3806.880660581043</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3101.389534015723</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3101.389534015723</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2682.247070595034</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2273.960946894687</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2649.812644093528</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>2543.35618293017</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>2448.265894076723</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>2354.145479403677</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>2270.761641019838</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>2185.376551286022</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>2143.640899102235</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>2169.704572262693</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>2494.262897228905</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>3148.968943854628</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>3689.707882486704</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>3806.880660581043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>3743.425223029426</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>3613.246579360028</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>3436.910032359996</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>3237.792514421996</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>3052.46976015519</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>2897.60232439407</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>2771.116545173291</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2136293346052</v>
+        <v>790.3368563937602</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6519178178302</v>
+        <v>617.7751448769851</v>
       </c>
       <c r="D46" t="n">
-        <v>425.7739250193529</v>
+        <v>451.8971520785078</v>
       </c>
       <c r="E46" t="n">
-        <v>418.435942224037</v>
+        <v>282.1391483292451</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7288881857932</v>
+        <v>282.1391483292451</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162086</v>
+        <v>116.5478733550727</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745624</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878948</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176944</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2292.381813755399</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.82558594935</v>
+        <v>2013.948813008505</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.87007781978</v>
+        <v>1726.993304878935</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.843673406072</v>
+        <v>1454.966900465227</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.451918739484</v>
+        <v>1209.575145798639</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0322480535924</v>
+        <v>982.1554751127474</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>239.5100572483141</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>321.9475215913872</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611177</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,31 +8294,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>477.1074400419159</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8380,10 +8382,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>35.25505765581499</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238393</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>288.796249040161</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>384.4104887602591</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>926.4397398113929</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>874.0742053677698</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>301.8344985190274</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>817.4976473511605</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L15" t="n">
-        <v>874.0742053677698</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,25 +9166,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523913</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-6.193604276308554e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10121,7 +10123,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1093.778640932155</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,10 +10363,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P32" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10425,19 +10427,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.29797569827242</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>282.6337518573328</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>531.8762684426497</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>109.7971848772035</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>76.59018389353741</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11138,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>583.6367138688926</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>951.720165145261</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>30.53874243648033</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>358.1825523183871</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>26.97216184894879</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6136617915899</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>103.1553467313935</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142672</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>58.58727362741661</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>54.79268646174603</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>201.9333177378963</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>55.07653710780792</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>223.1369608195782</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>111.4236523045826</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>144.1344859240855</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>58.58727362741787</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>37.46509486400026</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>63.4301651713668</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>147.4015334562719</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.277894049991858</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>30.81337269022663</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>250.7678151989217</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>124.358989813079</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>408242.6365131575</v>
+        <v>410356.3569170368</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>408242.6365131575</v>
+        <v>410736.936924691</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>330354.9619978917</v>
+        <v>408582.0612827243</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>330354.9619978917</v>
+        <v>408582.0612827243</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>330354.9619978917</v>
+        <v>408582.0612827243</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>330354.9619978917</v>
+        <v>408582.0612827242</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="C2" t="n">
         <v>536147.3198904084</v>
@@ -26320,13 +26322,13 @@
         <v>536147.3198904083</v>
       </c>
       <c r="E2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="F2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="G2" t="n">
-        <v>526857.5841373524</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
         <v>526857.5841373522</v>
@@ -26338,22 +26340,22 @@
         <v>526857.5841373522</v>
       </c>
       <c r="K2" t="n">
+        <v>526857.5841373521</v>
+      </c>
+      <c r="L2" t="n">
         <v>526857.5841373522</v>
-      </c>
-      <c r="L2" t="n">
-        <v>526857.5841373521</v>
       </c>
       <c r="M2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="N2" t="n">
+        <v>526857.5841373522</v>
+      </c>
+      <c r="O2" t="n">
+        <v>526857.5841373524</v>
+      </c>
+      <c r="P2" t="n">
         <v>526857.5841373523</v>
-      </c>
-      <c r="O2" t="n">
-        <v>425985.4596640249</v>
-      </c>
-      <c r="P2" t="n">
-        <v>425985.4596640249</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501628</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998266</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387726</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622227</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>130243.4307963242</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>11517.81928486549</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>11517.81928486549</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26451,13 +26453,13 @@
         <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="O4" t="n">
-        <v>11517.81928486549</v>
+        <v>14245.20557049262</v>
       </c>
       <c r="P4" t="n">
-        <v>11517.81928486549</v>
+        <v>14245.20557049259</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159230.991228365</v>
+        <v>159230.9912283652</v>
       </c>
       <c r="C6" t="n">
-        <v>301422.2918880751</v>
+        <v>267359.9073910653</v>
       </c>
       <c r="D6" t="n">
-        <v>301422.291888075</v>
+        <v>328276.3465535328</v>
       </c>
       <c r="E6" t="n">
-        <v>199125.7594162236</v>
+        <v>252539.0307400173</v>
       </c>
       <c r="F6" t="n">
-        <v>356603.0543383276</v>
+        <v>434894.1399610671</v>
       </c>
       <c r="G6" t="n">
-        <v>345394.3313546981</v>
+        <v>434894.139961067</v>
       </c>
       <c r="H6" t="n">
-        <v>434894.139961067</v>
+        <v>434894.1399610671</v>
       </c>
       <c r="I6" t="n">
         <v>434894.139961067</v>
       </c>
       <c r="J6" t="n">
-        <v>323879.6746160768</v>
+        <v>323879.6746160769</v>
       </c>
       <c r="K6" t="n">
-        <v>434894.139961067</v>
+        <v>381848.2853222943</v>
       </c>
       <c r="L6" t="n">
-        <v>434894.1399610669</v>
+        <v>425501.8382344448</v>
       </c>
       <c r="M6" t="n">
-        <v>303457.8928036476</v>
+        <v>282693.9690230794</v>
       </c>
       <c r="N6" t="n">
         <v>434894.1399610671</v>
       </c>
       <c r="O6" t="n">
-        <v>356603.0543383276</v>
+        <v>434894.1399610673</v>
       </c>
       <c r="P6" t="n">
-        <v>356603.0543383276</v>
+        <v>434894.1399610672</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939305</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939305</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939305</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>101.3319306324442</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>14.40980989651661</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>35.29623327943145</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>17.77275482563857</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>218.3782197173486</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>63.26032561323962</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>87.66046246755128</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>127.0921913165474</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>367.7418326819454</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>185.5052794208651</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>32.95267764171857</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.66185472941689</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.895555166631037e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28734,7 +28736,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>239.5100572483141</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>321.9475215913872</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611177</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,31 +35014,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>477.1074400419159</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,22 +35099,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>35.25505765581499</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238393</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>288.796249040161</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>384.4104887602591</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>926.4397398113929</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>874.0742053677698</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>301.8344985190274</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>817.4976473511605</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L15" t="n">
-        <v>874.0742053677698</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,25 +35886,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N17" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,10 +36141,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,22 +36603,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523913</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-3.292261534887825e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,7 +36843,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1093.778640932155</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36850,10 +36852,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37075,16 +37077,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P32" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.29797569827242</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>282.6337518573328</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>531.8762684426497</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>109.7971848772035</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>76.59018389353741</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37858,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>583.6367138688926</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>951.720165145261</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>30.53874243648033</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080377</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2878268.504316718</v>
+        <v>2877743.321947685</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916862</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>332.4291174559667</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>4.926357066016942</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6437502184299</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>213.1724672599513</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>315.5768070219751</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1113,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>156.9937617317264</v>
+        <v>70.35144031921988</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>345.4056667988684</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1147,13 +1147,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>32.36127543482664</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>137.8834167598887</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>6.133574646794328</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1773,13 +1773,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>6.133574646794328</v>
+        <v>123.7760609888608</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.436997393288</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>29.18607610565481</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2089,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>82.15263531037753</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2538,13 +2538,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.3792913045956</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>46.16917954999316</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>20.08472694640704</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>46.22530271040065</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3505,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314726</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3562,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>94.21878984361651</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>240.7177837031569</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629693</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3900,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>126.8355823247567</v>
+        <v>148.8597651552996</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4039,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>137.5563529521253</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>14.14416275345018</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1346.066214855497</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>917.4845405927651</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>488.9028663300335</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>459.1685255287327</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4330,52 +4330,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1388.488210888791</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1388.488210888791</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1387.673160340228</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1372.571100959943</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1368.325381300001</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.4376660667899</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>340.8759545500149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>174.9979617515375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>174.9979617515375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4488,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>958.7861344791625</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>958.7861344791625</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1378.455383704944</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4527,13 +4527,13 @@
         <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>705.2562847857771</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>705.2562847857771</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1047.008894192388</v>
+        <v>1267.076121319346</v>
       </c>
       <c r="C5" t="n">
-        <v>608.8664213758111</v>
+        <v>828.9336485027693</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5406968708098</v>
+        <v>393.0238636772138</v>
       </c>
       <c r="E5" t="n">
-        <v>363.806356069509</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233711</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762204</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346894</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>2301.552102346894</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>2301.552102346894</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="W5" t="n">
-        <v>2300.737051798331</v>
+        <v>2520.80427892529</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.594588377642</v>
+        <v>2101.6618155046</v>
       </c>
       <c r="Y5" t="n">
-        <v>1473.308464677295</v>
+        <v>1693.375691804254</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993472</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>76.49605974993472</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>548.8324253914315</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>548.8324253914315</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>548.8324253914315</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>548.8324253914315</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>548.8324253914315</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>989.5883728917329</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>817.0266613749578</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>651.1486685764805</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>481.3906648272178</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>304.6836107889741</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947711</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606127</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>743.4007229285737</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1202.884590109487</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1645.143393267131</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2064.812642492913</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2412.319536463255</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T7" t="n">
-        <v>2275.739883052311</v>
+        <v>2275.739883052308</v>
       </c>
       <c r="U7" t="n">
-        <v>1997.306882305416</v>
+        <v>1997.306882305413</v>
       </c>
       <c r="V7" t="n">
-        <v>1838.727325000642</v>
+        <v>1926.244821376908</v>
       </c>
       <c r="W7" t="n">
-        <v>1566.700920586933</v>
+        <v>1654.218416963199</v>
       </c>
       <c r="X7" t="n">
-        <v>1321.309165920346</v>
+        <v>1408.826662296612</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>1181.40699161072</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>978.7890572316419</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>540.6465844150651</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>508.7772036299137</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2637.372669426552</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2637.372669426552</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2637.372669426552</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2232.517214837585</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.374751416896</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.08862771655</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4898,13 +4898,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1605.602207829152</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>933.2958513705998</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
@@ -5050,43 +5050,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>845.1948155628801</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>679.3168227644028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.575145798642</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5278,52 +5278,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1017.756527079655</v>
+        <v>970.9960463903985</v>
       </c>
       <c r="C16" t="n">
-        <v>845.1948155628801</v>
+        <v>798.4343348736235</v>
       </c>
       <c r="D16" t="n">
-        <v>679.3168227644028</v>
+        <v>632.5563420751462</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5457,31 +5457,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.652494875573</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y16" t="n">
-        <v>1209.575145798642</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5518,28 +5518,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3343.69978846117</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>3343.69978846117</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>3177.821795662692</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>3008.06379191343</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>2831.356737875186</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>2665.765462901014</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>2525.863288591388</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5091.624192244352</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>5091.624192244352</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>4845.744745822808</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>4567.311745075914</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>4280.356236946344</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>4008.329832532636</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>3762.938077866048</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>3535.518407180157</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5737,43 +5737,43 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>269.4112304877946</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1103.761522445973</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2178.821488698832</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2178.821488698832</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.727725908489</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>843.1660143917137</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>677.2880215932364</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>507.5300178439736</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1952.384174393664</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1680.357769979955</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1434.966015313368</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1207.546344627476</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.993304878938</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1481.601550212351</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1680.357769979955</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1434.966015313368</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1207.546344627476</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3429.850174425755</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3257.288462908979</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3849.088463830633</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3621.668793144742</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,34 +6937,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6976,7 +6976,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>210.9600532992111</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>210.9600532992111</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>210.9600532992111</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>210.9600532992111</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>210.9600532992111</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>875.8255515988633</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C40" t="n">
-        <v>703.2638400820882</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>537.3858472836109</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>367.6278435343481</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>190.9207894961043</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
         <v>190.9207894961043</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2623.749955382047</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2377.870508960502</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2099.437508213608</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1812.482000084038</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1540.45559567033</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1295.063841003742</v>
+        <v>1233.235445292023</v>
       </c>
       <c r="Y40" t="n">
-        <v>1067.64417031785</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7411,31 +7411,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7499,16 +7499,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>842.8792965674086</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>842.8792965674086</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2590.803700350592</v>
+        <v>2568.557051026812</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.924253929048</v>
+        <v>2322.677604605267</v>
       </c>
       <c r="U43" t="n">
-        <v>2066.491253182153</v>
+        <v>2044.244603858372</v>
       </c>
       <c r="V43" t="n">
-        <v>1779.535745052583</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="W43" t="n">
-        <v>1507.509340638875</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1262.117585972288</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1034.697915286396</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7651,43 +7651,43 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
@@ -7730,19 +7730,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937602</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>617.7751448769851</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="D46" t="n">
-        <v>451.8971520785078</v>
+        <v>805.1180535919176</v>
       </c>
       <c r="E46" t="n">
-        <v>282.1391483292451</v>
+        <v>635.3600498426549</v>
       </c>
       <c r="F46" t="n">
-        <v>282.1391483292451</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>116.5478733550727</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7812,46 +7812,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745624</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955475</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.55153211312</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338901</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309243</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176944</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755399</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008505</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878935</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.966900465227</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798639</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127474</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>321.9475215913872</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611177</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>477.1074400419159</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.4038313238393</v>
+        <v>22.94960388475556</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,28 +8771,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>301.8344985190274</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9181,10 +9181,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9421,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>715.8552653209142</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10363,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>110.0804674982792</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>986.1859873202736</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7971848772035</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11068,7 +11068,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>161.9268490649758</v>
+        <v>44.28436272290928</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>58.58727362741661</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>201.9333177378963</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>223.1369608195782</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.1344859240855</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>63.4301651713668</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2.220053416764728</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>30.81337269022663</v>
+        <v>8.789189859683717</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>37.38363054573603</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>124.358989813079</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>410356.3569170368</v>
+        <v>410356.3569170367</v>
       </c>
     </row>
     <row r="4">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>408582.0612827243</v>
+        <v>408582.0612827242</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>408582.0612827242</v>
+        <v>408582.0612827243</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="C2" t="n">
         <v>536147.3198904084</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="E2" t="n">
         <v>526857.5841373522</v>
@@ -26334,19 +26334,19 @@
         <v>526857.5841373522</v>
       </c>
       <c r="I2" t="n">
+        <v>526857.5841373523</v>
+      </c>
+      <c r="J2" t="n">
+        <v>526857.5841373523</v>
+      </c>
+      <c r="K2" t="n">
         <v>526857.5841373522</v>
-      </c>
-      <c r="J2" t="n">
-        <v>526857.5841373522</v>
-      </c>
-      <c r="K2" t="n">
-        <v>526857.5841373521</v>
       </c>
       <c r="L2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="M2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="N2" t="n">
         <v>526857.5841373522</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501628</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998266</v>
+        <v>11527.59554998292</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.8546387726</v>
+        <v>53045.85463877239</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622227</v>
+        <v>9392.301726622436</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,10 +26420,10 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>130243.4307963242</v>
+        <v>130243.4307963244</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
         <v>14245.20557049264</v>
@@ -26453,13 +26453,13 @@
         <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049259</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049262</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>14245.20557049259</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159230.9912283652</v>
+        <v>159230.991228365</v>
       </c>
       <c r="C6" t="n">
-        <v>267359.9073910653</v>
+        <v>267359.9073910655</v>
       </c>
       <c r="D6" t="n">
-        <v>328276.3465535328</v>
+        <v>328276.3465535325</v>
       </c>
       <c r="E6" t="n">
-        <v>252539.0307400173</v>
+        <v>252515.8064006346</v>
       </c>
       <c r="F6" t="n">
-        <v>434894.1399610671</v>
+        <v>434870.9156216845</v>
       </c>
       <c r="G6" t="n">
-        <v>434894.139961067</v>
+        <v>434870.9156216843</v>
       </c>
       <c r="H6" t="n">
-        <v>434894.1399610671</v>
+        <v>434870.9156216844</v>
       </c>
       <c r="I6" t="n">
-        <v>434894.139961067</v>
+        <v>434870.9156216845</v>
       </c>
       <c r="J6" t="n">
-        <v>323879.6746160769</v>
+        <v>323856.4502766943</v>
       </c>
       <c r="K6" t="n">
-        <v>381848.2853222943</v>
+        <v>381825.060982912</v>
       </c>
       <c r="L6" t="n">
-        <v>425501.8382344448</v>
+        <v>425478.6138950619</v>
       </c>
       <c r="M6" t="n">
-        <v>282693.9690230794</v>
+        <v>282670.7446836968</v>
       </c>
       <c r="N6" t="n">
-        <v>434894.1399610671</v>
+        <v>434870.9156216843</v>
       </c>
       <c r="O6" t="n">
-        <v>434894.1399610673</v>
+        <v>434870.9156216846</v>
       </c>
       <c r="P6" t="n">
-        <v>434894.1399610672</v>
+        <v>434870.9156216845</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939305</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939305</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939305</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>101.3319306324442</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>251.7037225901363</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>35.29623327943145</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>218.3782197173486</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>113.8601903713127</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>127.0921913165474</v>
+        <v>213.734512729054</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>86.14502017843154</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>185.5052794208651</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>32.95267764171857</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>122.4480280049969</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.608894466380582e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34865,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>321.9475215913872</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611177</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>477.1074400419159</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.4038313238393</v>
+        <v>22.94960388475556</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>301.8344985190274</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35825,7 +35825,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081364</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36056,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36141,10 +36141,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>715.8552653209142</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,19 +37080,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>110.0804674982792</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37545,13 +37545,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>986.1859873202736</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7971848772035</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37867,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080377</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
